--- a/metadata/ADSL_ADVS_pk_spec.xlsx
+++ b/metadata/ADSL_ADVS_pk_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5816E-3E6E-4989-B82E-CAB6E38C32A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABB029-944B-4E43-8471-264B6E6BAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28875" windowHeight="14625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28635" windowHeight="14610" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Dictionaries!$A$1:$E$1</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="896">
   <si>
     <t>Attribute</t>
   </si>
@@ -1791,21 +1791,6 @@
     <t>ADSL_AGEGR1N</t>
   </si>
   <si>
-    <t>ADSL_SEX</t>
-  </si>
-  <si>
-    <t>ADSL_RACE</t>
-  </si>
-  <si>
-    <t>ADSL_RACEN</t>
-  </si>
-  <si>
-    <t>ADSL_RACEGR1</t>
-  </si>
-  <si>
-    <t>ADSL_RACEGR1N</t>
-  </si>
-  <si>
     <t>ADSL_ETHNIC</t>
   </si>
   <si>
@@ -2427,9 +2412,6 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>Ethnic</t>
-  </si>
-  <si>
     <t>NOT REPORTED</t>
   </si>
   <si>
@@ -2460,13 +2442,7 @@
     <t>Intersex</t>
   </si>
   <si>
-    <t>Treatment Assignments</t>
-  </si>
-  <si>
     <t>No Treatment</t>
-  </si>
-  <si>
-    <t>Treatment Assignments (N)</t>
   </si>
   <si>
     <t>888</t>
@@ -2705,14 +2681,6 @@
     <t>Algorithm for ADVS.ONTRTFL</t>
   </si>
   <si>
-    <t>Set to null if Datetime of First Exposure to Treatment [ADSL.TRTSDT] is missing
-Else set to 'Y' if Analysis Datetime [ADVS.ADT] is missing
-Else set to null if Analysis Datetime [ADVS.ADT] &lt; Datetime of First Exposure to Treatment  [ADSL.TRTSDTM]
-Else set to null if Analysis Visit [ADVS.AVISIT] contains 'Baseline'
-Else set to null if Analysis Datetime [ADVS.ADT] &gt; Datetime of Last Exposure to Treatment [ADSL.TRTEDT]
-Else set to 'Y'</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ANL01FL</t>
   </si>
   <si>
@@ -2729,86 +2697,10 @@
     <t>Algorithm for ADSL.TRTDUR</t>
   </si>
   <si>
-    <t>if not missing(TRTSDT) and not missing(TRTEDT) then set to difference of ADSL.TRTSDT - ADSL.TRTEDT</t>
-  </si>
-  <si>
-    <t>if DM.ACTARM in ("Screen Failure" "Not Assigned" "Not Treated") then TRT01A = "No Treatment"; else TRT01A = DM.ACTARM</t>
-  </si>
-  <si>
-    <t>if DM.ARM in ("Screen Failure" "Not Assigned" "Not Treated") then TRT01P = "No Treatment"; else TRT01P = DM.ARM</t>
-  </si>
-  <si>
-    <t>Date portion of latest EX.EXENDTC in the study, where EX.EXDOSE is not missing.</t>
-  </si>
-  <si>
-    <t>Datetime of latest EX.EXENDTC in the study, where EX.EXDOSE is not missing.</t>
-  </si>
-  <si>
-    <t>Date portion of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
-  </si>
-  <si>
-    <t>Datetime of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
-  </si>
-  <si>
-    <t>Time portion of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
-  </si>
-  <si>
-    <t>Numeric date version of DS.DSSTDTC where DS.DSDECOD = "RANDOMIZED"</t>
-  </si>
-  <si>
     <t>Imputation</t>
   </si>
   <si>
-    <t>TRTSTMF= H if the entire time is imputed. TRTSTMF = M if minutes and seconds are imputed. TRTSTMF = S if only seconds are imputed.</t>
-  </si>
-  <si>
-    <t>TRTETMF= H if the entire time is imputed. TRTETMF = M if minutes and seconds are imputed. TRTETMF = S if only seconds are imputed.</t>
-  </si>
-  <si>
-    <t>if DM.AGE &lt; 18 ~ "&lt;18",
-    between(DM.AGE, 18, 64) ~ "18-64",
-    AGE &gt; 64 ~ "&gt;64",
-    TRUE ~ "Missing"</t>
-  </si>
-  <si>
-    <t>DM.RACE == "WHITE" ~ "White",
-    DM.RACE != "WHITE" ~ "Non-white",
-    TRUE ~ "Missing"</t>
-  </si>
-  <si>
-    <t>Set to number of days from ADSL.TRTSDT to ADSL.DTHDT</t>
-  </si>
-  <si>
-    <t>Set to duration in days from ADSL.TRTSDT to ADSL.DTHDT</t>
-  </si>
-  <si>
-    <t>if AE.AEOUT = "FATAL" set to AE.ADECOD; else if DS.DSDECOD = "DEATH" set to DS.DSTERM</t>
-  </si>
-  <si>
     <t>Set to SDTM Domain that the Death was recorded</t>
-  </si>
-  <si>
-    <t>if is.na(ADSL.DTHDOM) ~ NA_character_,
-else if ADSL.DTHDOM == "AE" ~ "ADVERSE EVENT",
-else if str_detect(ADSL.DTHCAUS, "(PROGRESSIVE DISEASE|DISEASE RELAPSE)") ~ "PROGRESSIVE DISEASE",
-otherwise set ADSL.DTHDOM to "OTHER"</t>
-  </si>
-  <si>
-    <t>if DS.DSCAT == "DISPOSITION EVENT" &amp; DS.DSDECOD == "SCREEN FAILURE" then set ADSL.SCRFDT to DS.DSSTDT</t>
-  </si>
-  <si>
-    <t>if DS.DSCAT == "DISPOSITION EVENT" &amp; DS.DSDECOD != "SCREEN FAILURE" then set ADSL.EOSDT to DS.DSSTDT</t>
-  </si>
-  <si>
-    <t>if DS.DSDECOD %in% c("COMPLETED") ~ "COMPLETED", else if DS.DSDECOD %in% c("SCREEN FAILURE") ~ NA_character_,
-else if !is.na(DS.DSDECOD) ~ "DISCONTINUED", otherwise set to "ONGOING"</t>
-  </si>
-  <si>
-    <t>if  DS.DSCAT == "OTHER EVENT" &amp; DS.DSDECOD == "FINAL RETRIEVAL VISIT" then set FRVDT to DS.DSSTDT</t>
-  </si>
-  <si>
-    <t>if DM.COUNTRY %in% c("CAN", "USA") ~ "NA", !is.na(DM.COUNTRY) ~ "RoW",
-    TRUE ~ "Missing"</t>
   </si>
   <si>
     <t>Set to VS.VSTESTCD for parameters from VS domain,
@@ -2816,6 +2708,106 @@
   </si>
   <si>
     <t>MAP: Set to (2*(Diastolic Blood Pressure)+ Systolic Blood Pressure)/3</t>
+  </si>
+  <si>
+    <t>if Date of First Exposure to Treatment is not missing [ADSL.TRTSDT] and Date of Last Exposure to Treatment is not missing [ADSL.TRTEDT] then set to difference of Date of Last Exposure to Treatment and Date of First Exposure to Treatment: [ADSL.TRTEDT] - [ADSL.TRTSDT]</t>
+  </si>
+  <si>
+    <t>if Description of Actual Arm [DM.ACTARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Actual Treatment for Period 01 [ADSL.TRT01A] to "No Treatment";
+else Actual Treatment for Period 01 [ADSL.TRT01A] = Description of Actual Arm [DM.ACTARM]</t>
+  </si>
+  <si>
+    <t>if Description of Planned Arm [DM.ARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Planned Treatment for Period 01 [ADSL.TRT01P] to "No Treatment";
+else Planned Treatment for Period 01 [ADSL.TRT01P] = Description of Planned Arm [DM.ARM]</t>
+  </si>
+  <si>
+    <t>Date portion of latest End Date/Time of Treatment [EX.EXENDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
+  </si>
+  <si>
+    <t>Datetime of latest latest End Date/Time of Treatment [EX.EXENDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
+  </si>
+  <si>
+    <t>Date portion of earliest Start Date/Time of Treatment [EX.EXSTDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
+  </si>
+  <si>
+    <t>Datetime of earliest Start Date/Time of Treatment [EX.EXSTDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
+  </si>
+  <si>
+    <t>Time portion of earliest Start Date/Time of Treatment [EX.EXSTDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
+  </si>
+  <si>
+    <t>Numeric date version of Start Date/Time of Disposition Event [DS.DSSTDTC] where Standardized Disposition Term [DS.DSDECOD] = "RANDOMIZED"</t>
+  </si>
+  <si>
+    <t>Set to 'H' if the entire time from Time of First Exposure to Treatment [ADSL.TRTSTM] is imputed.
+Else set to 'M' if minutes and seconds from Time of First Exposure to Treatment [ADSL.TRTSTM] are imputed.
+Else set to 'S' if only seconds from Time of First Exposure to Treatment [ADSL.TRTSTM] are imputed.</t>
+  </si>
+  <si>
+    <t>Set to 'H' if the entire time from Datetime of Last Exposure to Treatment [ADSL.TRTEDTM] is imputed.
+Else set to 'M' if minutes and seconds from Datetime of Last Exposure to Treatment [ADSL.TRTEDTM] are imputed.
+Else set to 'S' if only seconds from Datetime of Last Exposure to Treatment [ADSL.TRTEDTM] are imputed.</t>
+  </si>
+  <si>
+    <t>Set to null if Datetime of First Exposure to Treatment [ADSL.TRTSDT] is missing,
+Else set to 'Y' if Analysis Datetime [ADVS.ADT] is missing,
+Else set to null if Analysis Datetime [ADVS.ADT] &lt; Datetime of First Exposure to Treatment  [ADSL.TRTSDTM],
+Else set to null if Analysis Visit [ADVS.AVISIT] contains 'Baseline',
+Else set to null if Analysis Datetime [ADVS.ADT] &gt; Datetime of Last Exposure to Treatment [ADSL.TRTEDT],
+Else set to 'Y'</t>
+  </si>
+  <si>
+    <t>Set to "&lt;18" when Age [DM.AGE] is not missing and &lt; 18,
+Else set to "18-64" when 18 &lt;= Age [DM.AGE] &lt;= 64,
+Else set to "&gt;64" when Age [DM.AGE] &gt; 64,
+Else set to "Missing".</t>
+  </si>
+  <si>
+    <t>Set to "White" when Race [DM.RACE] = "WHITE",
+else set to "Non-white" if Race [DM.RACE] is not missing and is not equal to "WHITE",
+else set to 'Missing'.</t>
+  </si>
+  <si>
+    <t>Set to number of days from Date of First Exposure to Treatment [ADSL.TRTSDT] to Date of Death [ADSL.DTHDT]</t>
+  </si>
+  <si>
+    <t>Set to duration in days from Date of First Exposure to Treatment [ADSL.TRTSDT] to Date of Death [ADSL.DTHDT]</t>
+  </si>
+  <si>
+    <t>Set to Dictionary-Derived Term [AE.AEDECOD] when Outcome of Adverse Event [AE.AEOUT] = "FATAL";
+else set to Reported Term for the Disposition Event [DS.DSTERM] when Standardized Disposition Term [DS.DSDECOD] = "DEATH".</t>
+  </si>
+  <si>
+    <t>Set to NA_character_ if Death Domain [ADSL.DTHDOM] is missing,
+else set to "ADVERSE EVENT" if Death Domain [ADSL.DTHDOM] = "AE" ,
+else set to "PROGRESSIVE DISEASE" if Cause of Death [ADSL.DTHCAUS] contains ("PROGRESSIVE DISEASE" or "DISEASE RELAPSE",
+else if Death Domain [ADSL.DTHDOM] is not missing set to "OTHER".</t>
+  </si>
+  <si>
+    <t>Set to numeric date version of Start Date/Time of Disposition Event [DS.DSSTDTC] if Category for Disposition Event [DS.DSCAT] = "DISPOSITION EVENT" and Standardized Disposition Term [DS.DSDECOD] = "SCREEN FAILURE"</t>
+  </si>
+  <si>
+    <t>Set to numeric date version of Start Date/Time of Disposition Event [DS.DSSTDTC] if Category for Disposition Event [DS.DSCAT] = "DISPOSITION EVENT" and Standardized Disposition Term [DS.DSDECOD] is not equal to "SCREEN FAILURE"</t>
+  </si>
+  <si>
+    <t>Set to "COMPLETED" if Standardized Disposition Term [DS.DSDECOD] = "COMPLETED",
+else set to NA_character_ if Standardized Disposition Term [DS.DSDECOD]  "SCREEN FAILURE",
+else set to "DISCONTINUED" if Standardized Disposition Term [DS.DSDECOD] is not missing,
+else set to "ONGOING".</t>
+  </si>
+  <si>
+    <t>Set to numeric date version of Start Date/Time of Disposition Event [DS.DSSTDTC] if Category for Disposition Event [DS.DSCAT] = "OTHER EVENT" and Standardized Disposition Term [DS.DSDECOD]= "FINAL RETRIEVAL VISIT"</t>
+  </si>
+  <si>
+    <t>Set to "NA" if Country [DM.COUNTRY] is in ("CAN", "USA"),
+else set to "RoW" if Country [DM.COUNTRY] is not missing,
+else set to "Missing".</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>TRTN</t>
   </si>
 </sst>
 </file>
@@ -3436,7 +3428,7 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3535,9 @@
         <v>530</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="28" t="s">
         <v>533</v>
       </c>
@@ -3566,7 +3560,9 @@
         <v>392</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="28" t="s">
         <v>532</v>
       </c>
@@ -3633,10 +3629,10 @@
   <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D286" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K278" sqref="K278"/>
+      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8265,7 +8261,7 @@
       <c r="L191"/>
       <c r="M191"/>
       <c r="N191" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="O191"/>
       <c r="P191"/>
@@ -8302,10 +8298,10 @@
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="O192" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="P192"/>
       <c r="Q192"/>
@@ -8341,10 +8337,10 @@
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O193" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="P193"/>
       <c r="Q193"/>
@@ -8380,7 +8376,7 @@
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="O194"/>
       <c r="P194"/>
@@ -8417,7 +8413,7 @@
       <c r="L195"/>
       <c r="M195"/>
       <c r="N195" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="O195"/>
       <c r="P195"/>
@@ -8488,7 +8484,7 @@
         <v>573</v>
       </c>
       <c r="K197" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L197"/>
       <c r="M197"/>
@@ -8528,7 +8524,7 @@
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="O198"/>
       <c r="P198"/>
@@ -8567,7 +8563,7 @@
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="O199"/>
       <c r="P199"/>
@@ -8603,7 +8599,7 @@
       </c>
       <c r="L200"/>
       <c r="M200" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="N200"/>
       <c r="O200"/>
@@ -8638,7 +8634,7 @@
         <v>575</v>
       </c>
       <c r="K201" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L201"/>
       <c r="M201"/>
@@ -8680,10 +8676,10 @@
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="O202" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P202"/>
       <c r="Q202"/>
@@ -8721,10 +8717,10 @@
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="O203" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P203"/>
       <c r="Q203"/>
@@ -8757,7 +8753,7 @@
         <v>68</v>
       </c>
       <c r="K204" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L204"/>
       <c r="M204"/>
@@ -8798,7 +8794,7 @@
       </c>
       <c r="L205"/>
       <c r="M205" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N205"/>
       <c r="O205"/>
@@ -8833,7 +8829,7 @@
         <v>68</v>
       </c>
       <c r="K206" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L206"/>
       <c r="M206"/>
@@ -8867,7 +8863,7 @@
         <v>50</v>
       </c>
       <c r="J207" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K207" t="s">
         <v>192</v>
@@ -8875,7 +8871,7 @@
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="O207"/>
       <c r="P207"/>
@@ -8906,18 +8902,18 @@
         <v>50</v>
       </c>
       <c r="J208" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K208" t="s">
         <v>114</v>
       </c>
       <c r="L208"/>
       <c r="M208" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="N208"/>
       <c r="O208" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P208"/>
       <c r="Q208"/>
@@ -8947,7 +8943,7 @@
         <v>50</v>
       </c>
       <c r="J209" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K209" t="s">
         <v>192</v>
@@ -8955,7 +8951,7 @@
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="O209"/>
       <c r="P209"/>
@@ -8986,18 +8982,18 @@
         <v>50</v>
       </c>
       <c r="J210" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K210" t="s">
         <v>114</v>
       </c>
       <c r="L210"/>
       <c r="M210" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N210"/>
       <c r="O210" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P210"/>
       <c r="Q210"/>
@@ -9035,11 +9031,11 @@
       </c>
       <c r="L211"/>
       <c r="M211" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="N211"/>
       <c r="O211" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P211"/>
       <c r="Q211"/>
@@ -9075,10 +9071,10 @@
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="O212" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P212"/>
       <c r="Q212"/>
@@ -9114,10 +9110,10 @@
       <c r="L213"/>
       <c r="M213"/>
       <c r="N213" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O213" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P213"/>
       <c r="Q213"/>
@@ -9153,10 +9149,10 @@
       <c r="L214"/>
       <c r="M214"/>
       <c r="N214" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="O214" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P214"/>
       <c r="Q214"/>
@@ -9192,10 +9188,10 @@
       <c r="L215"/>
       <c r="M215"/>
       <c r="N215" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O215" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P215"/>
       <c r="Q215"/>
@@ -9225,18 +9221,18 @@
         <v>49</v>
       </c>
       <c r="J216" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K216" t="s">
         <v>114</v>
       </c>
       <c r="L216"/>
       <c r="M216" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="N216"/>
       <c r="O216" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P216"/>
       <c r="Q216"/>
@@ -9266,16 +9262,16 @@
         <v>50</v>
       </c>
       <c r="J217" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K217" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
       <c r="O217" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P217"/>
       <c r="Q217"/>
@@ -9305,14 +9301,14 @@
         <v>50</v>
       </c>
       <c r="J218" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K218" t="s">
         <v>114</v>
       </c>
       <c r="L218"/>
       <c r="M218" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N218"/>
       <c r="O218"/>
@@ -9344,10 +9340,10 @@
         <v>50</v>
       </c>
       <c r="J219" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K219" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L219"/>
       <c r="M219"/>
@@ -9389,7 +9385,7 @@
       </c>
       <c r="L220"/>
       <c r="M220" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="N220"/>
       <c r="O220"/>
@@ -9429,7 +9425,7 @@
       </c>
       <c r="L221"/>
       <c r="M221" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="N221"/>
       <c r="O221"/>
@@ -9469,7 +9465,7 @@
       </c>
       <c r="L222"/>
       <c r="M222" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N222"/>
       <c r="O222"/>
@@ -9506,7 +9502,7 @@
       </c>
       <c r="L223"/>
       <c r="M223" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="N223"/>
       <c r="O223"/>
@@ -9546,7 +9542,7 @@
       </c>
       <c r="L224"/>
       <c r="M224" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="N224"/>
       <c r="O224"/>
@@ -9586,7 +9582,7 @@
       </c>
       <c r="L225"/>
       <c r="M225" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="N225"/>
       <c r="O225"/>
@@ -9623,7 +9619,7 @@
       </c>
       <c r="L226"/>
       <c r="M226" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N226"/>
       <c r="O226"/>
@@ -9660,7 +9656,7 @@
       </c>
       <c r="L227"/>
       <c r="M227" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="N227"/>
       <c r="O227"/>
@@ -9700,7 +9696,7 @@
       </c>
       <c r="L228"/>
       <c r="M228" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N228"/>
       <c r="O228"/>
@@ -9732,7 +9728,7 @@
         <v>50</v>
       </c>
       <c r="J229" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K229" t="s">
         <v>192</v>
@@ -9740,7 +9736,7 @@
       <c r="L229"/>
       <c r="M229"/>
       <c r="N229" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="O229"/>
       <c r="P229"/>
@@ -9776,7 +9772,7 @@
       </c>
       <c r="L230"/>
       <c r="M230" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N230"/>
       <c r="O230"/>
@@ -9813,7 +9809,7 @@
       </c>
       <c r="L231"/>
       <c r="M231" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="N231"/>
       <c r="O231"/>
@@ -9850,7 +9846,7 @@
       </c>
       <c r="L232"/>
       <c r="M232" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="N232"/>
       <c r="O232"/>
@@ -9887,7 +9883,7 @@
       </c>
       <c r="L233"/>
       <c r="M233" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N233"/>
       <c r="O233"/>
@@ -9924,7 +9920,7 @@
       </c>
       <c r="L234"/>
       <c r="M234" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N234"/>
       <c r="O234"/>
@@ -9964,7 +9960,7 @@
       </c>
       <c r="L235"/>
       <c r="M235" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="N235"/>
       <c r="O235"/>
@@ -10004,7 +10000,7 @@
       </c>
       <c r="L236"/>
       <c r="M236" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N236"/>
       <c r="O236"/>
@@ -10041,7 +10037,7 @@
       </c>
       <c r="L237"/>
       <c r="M237" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N237"/>
       <c r="O237"/>
@@ -10081,7 +10077,7 @@
       </c>
       <c r="L238"/>
       <c r="M238" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N238"/>
       <c r="O238"/>
@@ -10119,7 +10115,7 @@
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O239"/>
       <c r="P239"/>
@@ -10156,7 +10152,7 @@
       <c r="L240"/>
       <c r="M240"/>
       <c r="N240" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O240"/>
       <c r="P240"/>
@@ -10193,7 +10189,7 @@
       <c r="L241"/>
       <c r="M241"/>
       <c r="N241" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="O241"/>
       <c r="P241"/>
@@ -10230,7 +10226,7 @@
       <c r="L242"/>
       <c r="M242"/>
       <c r="N242" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="O242"/>
       <c r="P242"/>
@@ -10266,7 +10262,7 @@
       </c>
       <c r="L243"/>
       <c r="M243" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="N243"/>
       <c r="O243"/>
@@ -10304,7 +10300,7 @@
       <c r="L244"/>
       <c r="M244"/>
       <c r="N244" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="O244"/>
       <c r="P244"/>
@@ -10341,7 +10337,7 @@
       <c r="L245"/>
       <c r="M245"/>
       <c r="N245" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="O245"/>
       <c r="P245"/>
@@ -10378,7 +10374,7 @@
       <c r="L246"/>
       <c r="M246"/>
       <c r="N246" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="O246"/>
       <c r="P246"/>
@@ -10415,7 +10411,7 @@
       <c r="L247"/>
       <c r="M247"/>
       <c r="N247" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="O247"/>
       <c r="P247"/>
@@ -10452,7 +10448,7 @@
       <c r="L248"/>
       <c r="M248"/>
       <c r="N248" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="O248"/>
       <c r="P248"/>
@@ -10491,7 +10487,7 @@
       <c r="L249"/>
       <c r="M249"/>
       <c r="N249" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O249"/>
       <c r="P249"/>
@@ -10530,7 +10526,7 @@
       <c r="L250"/>
       <c r="M250"/>
       <c r="N250" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O250"/>
       <c r="P250"/>
@@ -10561,7 +10557,7 @@
         <v>50</v>
       </c>
       <c r="J251" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K251" t="s">
         <v>192</v>
@@ -10569,7 +10565,7 @@
       <c r="L251"/>
       <c r="M251"/>
       <c r="N251" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="O251"/>
       <c r="P251"/>
@@ -10600,7 +10596,7 @@
         <v>49</v>
       </c>
       <c r="J252" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K252" t="s">
         <v>192</v>
@@ -10608,7 +10604,7 @@
       <c r="L252"/>
       <c r="M252"/>
       <c r="N252" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O252"/>
       <c r="P252"/>
@@ -10639,7 +10635,7 @@
         <v>50</v>
       </c>
       <c r="J253" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K253" t="s">
         <v>192</v>
@@ -10647,7 +10643,7 @@
       <c r="L253"/>
       <c r="M253"/>
       <c r="N253" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="O253"/>
       <c r="P253"/>
@@ -10687,7 +10683,7 @@
       <c r="L254"/>
       <c r="M254"/>
       <c r="N254" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O254"/>
       <c r="P254"/>
@@ -10727,7 +10723,7 @@
       <c r="L255"/>
       <c r="M255"/>
       <c r="N255" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O255"/>
       <c r="P255"/>
@@ -10767,7 +10763,7 @@
       <c r="L256"/>
       <c r="M256"/>
       <c r="N256" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O256"/>
       <c r="P256"/>
@@ -10782,10 +10778,10 @@
         <v>528</v>
       </c>
       <c r="C257" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D257" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E257" t="s">
         <v>108</v>
@@ -10804,7 +10800,7 @@
       <c r="L257"/>
       <c r="M257"/>
       <c r="N257" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="O257"/>
       <c r="P257"/>
@@ -10819,10 +10815,10 @@
         <v>528</v>
       </c>
       <c r="C258" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D258" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E258" t="s">
         <v>108</v>
@@ -10841,7 +10837,7 @@
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="O258"/>
       <c r="P258"/>
@@ -10856,10 +10852,10 @@
         <v>528</v>
       </c>
       <c r="C259" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D259" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E259" t="s">
         <v>108</v>
@@ -10878,7 +10874,7 @@
       <c r="L259"/>
       <c r="M259"/>
       <c r="N259" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="O259"/>
       <c r="P259"/>
@@ -10893,10 +10889,10 @@
         <v>528</v>
       </c>
       <c r="C260" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D260" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E260" t="s">
         <v>108</v>
@@ -10915,7 +10911,7 @@
       <c r="L260"/>
       <c r="M260"/>
       <c r="N260" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="O260"/>
       <c r="P260"/>
@@ -10930,7 +10926,7 @@
         <v>528</v>
       </c>
       <c r="C261" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D261" t="s">
         <v>353</v>
@@ -10952,7 +10948,7 @@
       <c r="L261"/>
       <c r="M261"/>
       <c r="N261" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="O261"/>
       <c r="P261"/>
@@ -10967,7 +10963,7 @@
         <v>528</v>
       </c>
       <c r="C262" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D262" t="s">
         <v>355</v>
@@ -10989,7 +10985,7 @@
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O262"/>
       <c r="P262"/>
@@ -11004,7 +11000,7 @@
         <v>528</v>
       </c>
       <c r="C263" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D263" t="s">
         <v>335</v>
@@ -11026,7 +11022,7 @@
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="O263"/>
       <c r="P263"/>
@@ -11041,13 +11037,13 @@
         <v>528</v>
       </c>
       <c r="C264" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D264" t="s">
         <v>337</v>
       </c>
       <c r="E264" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F264">
         <v>8</v>
@@ -11063,7 +11059,7 @@
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="O264"/>
       <c r="P264"/>
@@ -11078,7 +11074,7 @@
         <v>528</v>
       </c>
       <c r="C265" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D265" t="s">
         <v>339</v>
@@ -11100,7 +11096,7 @@
       <c r="L265"/>
       <c r="M265"/>
       <c r="N265" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O265"/>
       <c r="P265"/>
@@ -11115,10 +11111,10 @@
         <v>528</v>
       </c>
       <c r="C266" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D266" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E266" t="s">
         <v>108</v>
@@ -11137,7 +11133,7 @@
       <c r="L266"/>
       <c r="M266"/>
       <c r="N266" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O266"/>
       <c r="P266"/>
@@ -11152,10 +11148,10 @@
         <v>528</v>
       </c>
       <c r="C267" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D267" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E267" t="s">
         <v>108</v>
@@ -11174,7 +11170,7 @@
       <c r="L267"/>
       <c r="M267"/>
       <c r="N267" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="O267"/>
       <c r="P267"/>
@@ -11189,10 +11185,10 @@
         <v>528</v>
       </c>
       <c r="C268" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D268" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E268" t="s">
         <v>108</v>
@@ -11211,7 +11207,7 @@
       <c r="L268"/>
       <c r="M268"/>
       <c r="N268" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="O268"/>
       <c r="P268"/>
@@ -11248,7 +11244,7 @@
       <c r="L269"/>
       <c r="M269"/>
       <c r="N269" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="O269"/>
       <c r="P269"/>
@@ -11285,7 +11281,7 @@
       <c r="L270"/>
       <c r="M270"/>
       <c r="N270" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="O270"/>
       <c r="P270"/>
@@ -11300,13 +11296,13 @@
         <v>528</v>
       </c>
       <c r="C271" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D271" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E271" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F271">
         <v>25</v>
@@ -11322,7 +11318,7 @@
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O271"/>
       <c r="P271"/>
@@ -11337,10 +11333,10 @@
         <v>528</v>
       </c>
       <c r="C272" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D272" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E272" t="s">
         <v>539</v>
@@ -11359,7 +11355,7 @@
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="O272"/>
       <c r="P272"/>
@@ -11374,7 +11370,7 @@
         <v>528</v>
       </c>
       <c r="C273" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D273" t="s">
         <v>349</v>
@@ -11396,7 +11392,7 @@
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="O273"/>
       <c r="P273"/>
@@ -11411,7 +11407,7 @@
         <v>528</v>
       </c>
       <c r="C274" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D274" t="s">
         <v>351</v>
@@ -11433,7 +11429,7 @@
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="O274"/>
       <c r="P274"/>
@@ -11448,10 +11444,10 @@
         <v>528</v>
       </c>
       <c r="C275" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D275" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E275" t="s">
         <v>108</v>
@@ -11470,7 +11466,7 @@
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O275"/>
       <c r="P275"/>
@@ -11485,10 +11481,10 @@
         <v>528</v>
       </c>
       <c r="C276" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D276" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E276" t="s">
         <v>539</v>
@@ -11507,7 +11503,7 @@
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="O276"/>
       <c r="P276"/>
@@ -11522,10 +11518,10 @@
         <v>528</v>
       </c>
       <c r="C277" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D277" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E277" t="s">
         <v>539</v>
@@ -11544,7 +11540,7 @@
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="O277"/>
       <c r="P277"/>
@@ -11559,10 +11555,10 @@
         <v>528</v>
       </c>
       <c r="C278" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D278" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E278" t="s">
         <v>108</v>
@@ -11581,7 +11577,7 @@
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="O278"/>
       <c r="P278"/>
@@ -11612,10 +11608,10 @@
         <v>49</v>
       </c>
       <c r="J279" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K279" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L279"/>
       <c r="M279"/>
@@ -11636,7 +11632,7 @@
         <v>254</v>
       </c>
       <c r="D280" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E280" t="s">
         <v>539</v>
@@ -11649,10 +11645,10 @@
         <v>50</v>
       </c>
       <c r="J280" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="K280" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L280"/>
       <c r="M280"/>
@@ -11686,10 +11682,10 @@
         <v>49</v>
       </c>
       <c r="J281" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="K281" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L281"/>
       <c r="M281"/>
@@ -11713,7 +11709,7 @@
         <v>313</v>
       </c>
       <c r="E282" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F282">
         <v>8</v>
@@ -11726,7 +11722,7 @@
       </c>
       <c r="L282"/>
       <c r="M282" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="N282"/>
       <c r="O282"/>
@@ -11757,11 +11753,11 @@
       <c r="I283"/>
       <c r="J283"/>
       <c r="K283" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L283"/>
       <c r="M283" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N283"/>
       <c r="O283"/>
@@ -11796,7 +11792,7 @@
       </c>
       <c r="L284"/>
       <c r="M284" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="N284"/>
       <c r="O284"/>
@@ -11812,10 +11808,10 @@
         <v>528</v>
       </c>
       <c r="C285" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D285" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E285" t="s">
         <v>539</v>
@@ -11827,7 +11823,7 @@
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L285"/>
       <c r="M285"/>
@@ -11851,7 +11847,7 @@
         <v>319</v>
       </c>
       <c r="E286" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F286">
         <v>8</v>
@@ -11864,7 +11860,7 @@
       </c>
       <c r="L286"/>
       <c r="M286" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="N286"/>
       <c r="O286"/>
@@ -11895,11 +11891,11 @@
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L287"/>
       <c r="M287" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N287"/>
       <c r="O287"/>
@@ -11929,14 +11925,14 @@
       <c r="G288"/>
       <c r="I288"/>
       <c r="J288" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K288" t="s">
         <v>114</v>
       </c>
       <c r="L288"/>
       <c r="M288" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="N288"/>
       <c r="O288"/>
@@ -11958,7 +11954,7 @@
         <v>321</v>
       </c>
       <c r="E289" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F289">
         <v>8</v>
@@ -11971,7 +11967,7 @@
       </c>
       <c r="L289"/>
       <c r="M289" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="N289"/>
       <c r="O289"/>
@@ -11987,13 +11983,13 @@
         <v>528</v>
       </c>
       <c r="C290" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D290" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E290" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F290">
         <v>8</v>
@@ -12006,7 +12002,7 @@
       </c>
       <c r="L290"/>
       <c r="M290" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="N290"/>
       <c r="O290"/>
@@ -12041,7 +12037,7 @@
       </c>
       <c r="L291"/>
       <c r="M291" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="N291"/>
       <c r="O291"/>
@@ -12057,13 +12053,13 @@
         <v>528</v>
       </c>
       <c r="C292" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D292" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E292" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F292">
         <v>8</v>
@@ -12072,11 +12068,11 @@
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L292"/>
       <c r="M292" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="N292"/>
       <c r="O292"/>
@@ -12092,13 +12088,13 @@
         <v>528</v>
       </c>
       <c r="C293" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D293" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E293" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F293">
         <v>8</v>
@@ -12107,11 +12103,11 @@
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L293"/>
       <c r="M293" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="N293"/>
       <c r="O293"/>
@@ -12127,10 +12123,10 @@
         <v>528</v>
       </c>
       <c r="C294" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D294" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E294" t="s">
         <v>108</v>
@@ -12146,7 +12142,7 @@
       </c>
       <c r="L294"/>
       <c r="M294" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="N294"/>
       <c r="O294"/>
@@ -12162,10 +12158,10 @@
         <v>528</v>
       </c>
       <c r="C295" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D295" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E295" t="s">
         <v>108</v>
@@ -12181,7 +12177,7 @@
       </c>
       <c r="L295"/>
       <c r="M295" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="N295"/>
       <c r="O295"/>
@@ -12197,13 +12193,13 @@
         <v>528</v>
       </c>
       <c r="C296" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D296" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E296" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F296">
         <v>8</v>
@@ -12212,11 +12208,11 @@
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L296"/>
       <c r="M296" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="N296"/>
       <c r="O296"/>
@@ -12232,13 +12228,13 @@
         <v>528</v>
       </c>
       <c r="C297" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D297" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E297" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F297">
         <v>8</v>
@@ -12247,11 +12243,11 @@
       <c r="I297"/>
       <c r="J297"/>
       <c r="K297" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L297"/>
       <c r="M297" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N297"/>
       <c r="O297"/>
@@ -12286,7 +12282,7 @@
       </c>
       <c r="L298"/>
       <c r="M298" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="N298"/>
       <c r="O298"/>
@@ -12321,7 +12317,7 @@
       </c>
       <c r="L299"/>
       <c r="M299" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="N299"/>
       <c r="O299"/>
@@ -12356,7 +12352,7 @@
       </c>
       <c r="L300"/>
       <c r="M300" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="N300"/>
       <c r="O300"/>
@@ -12387,11 +12383,11 @@
       <c r="I301"/>
       <c r="J301"/>
       <c r="K301" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L301"/>
       <c r="M301" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="N301"/>
       <c r="O301"/>
@@ -12426,7 +12422,7 @@
       </c>
       <c r="L302"/>
       <c r="M302" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="N302"/>
       <c r="O302"/>
@@ -12457,11 +12453,11 @@
       <c r="I303"/>
       <c r="J303"/>
       <c r="K303" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L303"/>
       <c r="M303" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="N303"/>
       <c r="O303"/>
@@ -12477,10 +12473,10 @@
         <v>528</v>
       </c>
       <c r="C304" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D304" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E304" t="s">
         <v>108</v>
@@ -12496,7 +12492,7 @@
       </c>
       <c r="L304"/>
       <c r="M304" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="N304"/>
       <c r="O304"/>
@@ -12512,10 +12508,10 @@
         <v>528</v>
       </c>
       <c r="C305" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D305" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E305" t="s">
         <v>108</v>
@@ -12531,7 +12527,7 @@
       </c>
       <c r="L305"/>
       <c r="M305" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="N305"/>
       <c r="O305"/>
@@ -12547,10 +12543,10 @@
         <v>528</v>
       </c>
       <c r="C306" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D306" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E306" t="s">
         <v>108</v>
@@ -12561,14 +12557,14 @@
       <c r="G306"/>
       <c r="I306"/>
       <c r="J306" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K306" t="s">
         <v>114</v>
       </c>
       <c r="L306"/>
       <c r="M306" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="N306"/>
       <c r="O306"/>
@@ -12587,7 +12583,7 @@
         <v>328</v>
       </c>
       <c r="D307" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E307" t="s">
         <v>108</v>
@@ -12598,14 +12594,14 @@
       <c r="G307"/>
       <c r="I307"/>
       <c r="J307" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K307" t="s">
         <v>114</v>
       </c>
       <c r="L307"/>
       <c r="M307" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="N307"/>
       <c r="O307"/>
@@ -12850,13 +12846,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12874,7 +12870,7 @@
     <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -12900,7 +12896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -12926,454 +12922,446 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="23" t="s">
-        <v>404</v>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="23" t="s">
-        <v>404</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
-        <v>404</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>518</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="23" t="s">
-        <v>404</v>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>510</v>
+      <c r="F10" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>70</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>518</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
-        <v>108</v>
+      <c r="D11" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>130</v>
+      <c r="F11" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>70</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>518</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>108</v>
+      <c r="D12" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>131</v>
+      <c r="F12" s="21" t="s">
+        <v>514</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>70</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>518</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
-        <v>108</v>
+      <c r="D13" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>132</v>
+      <c r="F13" s="21" t="s">
+        <v>511</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>512</v>
+      <c r="F15" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>514</v>
+      <c r="F16" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>511</v>
+      <c r="F17" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>510</v>
+      <c r="F18" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="5"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>126</v>
+      <c r="F19" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
         <v>130</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>127</v>
+      <c r="F20" s="21" t="s">
+        <v>514</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="5" t="s">
         <v>131</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>128</v>
+      <c r="F21" s="21" t="s">
+        <v>511</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="5" t="s">
         <v>132</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>129</v>
+      <c r="F22" s="22" t="s">
+        <v>510</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="5" t="s">
@@ -13384,241 +13372,241 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>470</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="23" t="s">
-        <v>137</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="25">
-        <v>3</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24" t="s">
-        <v>184</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A29" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>140</v>
+      <c r="F29" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B33" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>108</v>
@@ -13627,223 +13615,225 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
+      <c r="A34" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>165</v>
+        <v>141</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>108</v>
+      <c r="A35" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>134</v>
+      <c r="F35" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>108</v>
+      <c r="A36" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="14">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="F37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="14">
+        <v>3</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>168</v>
+        <v>143</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D42" s="5" t="s">
         <v>108</v>
       </c>
@@ -13851,1004 +13841,1019 @@
         <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="14">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="14">
-        <v>2</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="14">
-        <v>3</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="14">
-        <v>4</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E48" s="14">
-        <v>2</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E49" s="14">
-        <v>3</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>482</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>122</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="14">
+        <v>2</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="14">
+        <v>3</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="14">
         <v>4</v>
       </c>
-      <c r="F50" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="G50" s="15" t="s">
+      <c r="F53" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="14">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="14">
-        <v>3</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>480</v>
+        <v>68</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>404</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E54" s="14">
-        <v>1</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>404</v>
       </c>
       <c r="E55" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>511</v>
       </c>
+      <c r="G55" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="H55" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>404</v>
       </c>
       <c r="E56" s="14">
+        <v>2</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" s="14">
         <v>3</v>
       </c>
-      <c r="F56" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>136</v>
+      <c r="F57" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>109</v>
+        <v>482</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>109</v>
+        <v>482</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E58" s="14">
-        <v>2</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>158</v>
+        <v>4</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>516</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>111</v>
+        <v>482</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>108</v>
+        <v>482</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="E59" s="14">
-        <v>1</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>404</v>
+        <v>5</v>
+      </c>
+      <c r="F59" s="14">
+        <v>5</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E60" s="14">
         <v>1</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>404</v>
+      <c r="F60" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E61" s="14">
-        <v>1</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E62" s="14">
-        <v>1</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="E63" s="14">
         <v>1</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>108</v>
+      <c r="F63" s="14">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="E64" s="14">
         <v>2</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>108</v>
+      <c r="F64" s="14">
+        <v>2</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="E65" s="14">
         <v>3</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D66" s="15" t="s">
+      <c r="F65" s="14">
+        <v>3</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="14">
+        <v>1</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="14">
+        <v>2</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="14">
+        <v>3</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14">
+        <v>1</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E70" s="14">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14">
+        <v>2</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="E71" s="14">
+        <v>3</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="14">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="14">
+        <v>2</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="14">
+        <v>3</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14">
         <v>4</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E67" s="14">
-        <v>5</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="14">
-        <v>6</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="14">
-        <v>7</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>767</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="14">
-        <v>8</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="14">
-        <v>9</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="14">
-        <v>10</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="14">
-        <v>11</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E74" s="14">
-        <v>1</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E75" s="14">
-        <v>2</v>
-      </c>
       <c r="F75" s="15" t="s">
-        <v>510</v>
+        <v>790</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>791</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>404</v>
       </c>
       <c r="E76" s="14">
-        <v>3</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>515</v>
+        <v>1</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>404</v>
       </c>
       <c r="E77" s="14">
-        <v>4</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>516</v>
+        <v>2</v>
+      </c>
+      <c r="F77" s="14">
+        <v>2</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>404</v>
       </c>
       <c r="E78" s="14">
-        <v>5</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>535</v>
+        <v>3</v>
+      </c>
+      <c r="F78" s="14">
+        <v>3</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>254</v>
+        <v>480</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E79" s="14">
-        <v>6</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>534</v>
+        <v>4</v>
+      </c>
+      <c r="F79" s="14">
+        <v>4</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>791</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>254</v>
+        <v>109</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E80" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>782</v>
+        <v>136</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>766</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>254</v>
+        <v>109</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E81" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>540</v>
+        <v>158</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>769</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>254</v>
+        <v>111</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E82" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>512</v>
+        <v>158</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>772</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>254</v>
+        <v>795</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>254</v>
+        <v>796</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E83" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>537</v>
+        <v>136</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>775</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>254</v>
+        <v>795</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>254</v>
+        <v>796</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E84" s="14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>783</v>
+        <v>788</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>797</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>256</v>
+        <v>795</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>256</v>
+        <v>796</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>781</v>
+        <v>124</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>108</v>
@@ -14857,21 +14862,24 @@
         <v>3</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>754</v>
+        <v>156</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>755</v>
+        <v>175</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>256</v>
+        <v>795</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>256</v>
+        <v>796</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>781</v>
+        <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>108</v>
@@ -14880,188 +14888,182 @@
         <v>4</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>757</v>
+        <v>158</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>256</v>
+        <v>580</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>256</v>
+        <v>799</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>781</v>
+        <v>124</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E87" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>761</v>
+        <v>158</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>256</v>
+        <v>577</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E88" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>763</v>
+        <v>158</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>764</v>
+        <v>177</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>256</v>
+        <v>577</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E89" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>766</v>
+        <v>136</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>767</v>
+        <v>176</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>256</v>
+        <v>801</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>781</v>
+        <v>124</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E90" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>770</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>781</v>
+        <v>402</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E91" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>773</v>
+        <v>511</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>256</v>
+        <v>466</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>781</v>
+        <v>466</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E92" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>776</v>
+        <v>515</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>781</v>
+        <v>463</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E93" s="14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>778</v>
+        <v>515</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E94" s="14">
         <v>1</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H94" s="15" t="s">
         <v>519</v>
@@ -15069,731 +15071,751 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="E95" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>409</v>
+        <v>252</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>409</v>
+        <v>252</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E96" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>523</v>
+        <v>749</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>750</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>523</v>
+        <v>751</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>431</v>
+        <v>252</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>431</v>
+        <v>252</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E97" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>524</v>
+        <v>752</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>753</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>514</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>429</v>
+        <v>252</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>429</v>
+        <v>252</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="14">
+        <v>5</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="14">
+        <v>6</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="14">
+        <v>7</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="14">
+        <v>8</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="14">
+        <v>9</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="14">
+        <v>10</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" s="14">
+        <v>11</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E105" s="14">
         <v>1</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E99" s="14">
-        <v>1</v>
-      </c>
-      <c r="F99" s="14">
-        <v>1</v>
-      </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E100" s="14">
+      <c r="F105" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E106" s="14">
         <v>2</v>
       </c>
-      <c r="F100" s="14">
-        <v>2</v>
-      </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E101" s="14">
+      <c r="F106" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" s="14">
         <v>3</v>
       </c>
-      <c r="F101" s="14">
-        <v>3</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E102" s="14">
+      <c r="F107" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" s="14">
         <v>4</v>
       </c>
-      <c r="F102" s="14">
-        <v>4</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="14">
-        <v>1</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="14">
-        <v>2</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E105" s="14">
-        <v>3</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" s="14">
-        <v>1</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H106" s="14"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" s="14">
-        <v>2</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" s="14">
-        <v>3</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H108" s="14"/>
+      <c r="F108" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>108</v>
+      <c r="A109" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E109" s="14">
         <v>5</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H109" s="14"/>
+      <c r="F109" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>108</v>
+      <c r="A110" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E110" s="14">
         <v>6</v>
       </c>
-      <c r="F110" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
+      <c r="F110" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14" t="s">
-        <v>539</v>
+      <c r="A111" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E111" s="14">
-        <v>1</v>
-      </c>
-      <c r="F111" s="14">
-        <v>1</v>
-      </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14" t="s">
-        <v>539</v>
+      <c r="A112" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E112" s="14">
-        <v>2</v>
-      </c>
-      <c r="F112" s="14">
-        <v>2</v>
-      </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14" t="s">
-        <v>539</v>
+      <c r="A113" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E113" s="14">
+        <v>9</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E114" s="14">
+        <v>10</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E115" s="14">
+        <v>11</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" s="14">
         <v>3</v>
       </c>
-      <c r="F113" s="14">
-        <v>3</v>
-      </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E114" s="14">
+      <c r="F116" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="14">
         <v>4</v>
       </c>
-      <c r="F114" s="14">
-        <v>4</v>
-      </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E115" s="14">
+      <c r="F117" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" s="14">
         <v>5</v>
       </c>
-      <c r="F115" s="14">
-        <v>5</v>
-      </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="14">
-        <v>1</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="14">
-        <v>2</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="14">
-        <v>3</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
+      <c r="F118" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14" t="s">
-        <v>539</v>
+      <c r="A119" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="E119" s="14">
-        <v>1</v>
-      </c>
-      <c r="F119" s="14">
-        <v>1</v>
-      </c>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14" t="s">
-        <v>792</v>
+        <v>6</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14" t="s">
-        <v>539</v>
+      <c r="A120" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="E120" s="14">
-        <v>2</v>
-      </c>
-      <c r="F120" s="14">
-        <v>2</v>
-      </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14" t="s">
-        <v>793</v>
+        <v>7</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14" t="s">
-        <v>539</v>
+      <c r="A121" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="E121" s="14">
-        <v>3</v>
-      </c>
-      <c r="F121" s="14">
-        <v>3</v>
-      </c>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14" t="s">
-        <v>787</v>
+        <v>8</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14" t="s">
+      <c r="A122" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E122" s="14">
-        <v>1</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14" t="s">
+      <c r="A123" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D123" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="14">
-        <v>2</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14" t="s">
+      <c r="A124" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D124" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E124" s="14">
-        <v>3</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14" t="s">
-        <v>539</v>
+      <c r="A125" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="E125" s="14">
         <v>1</v>
       </c>
-      <c r="F125" s="14">
+      <c r="F125" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E126" s="14">
         <v>1</v>
       </c>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E126" s="14">
-        <v>2</v>
-      </c>
-      <c r="F126" s="14">
-        <v>2</v>
-      </c>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14" t="s">
-        <v>795</v>
+      <c r="F126" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>573</v>
+        <v>409</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>539</v>
+        <v>108</v>
       </c>
       <c r="E127" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>787</v>
+        <v>523</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>576</v>
+        <v>431</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>108</v>
@@ -15802,436 +15824,182 @@
         <v>1</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>173</v>
+        <v>524</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>178</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>576</v>
+        <v>429</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>123</v>
+        <v>429</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="E129" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>179</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>576</v>
+        <v>894</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>123</v>
+        <v>894</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E130" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>576</v>
+        <v>894</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>123</v>
+        <v>894</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E131" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>798</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>583</v>
+        <v>894</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E132" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>583</v>
+        <v>894</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E133" s="14">
-        <v>2</v>
+        <v>888</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>129</v>
+        <v>793</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>583</v>
+        <v>895</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>799</v>
+        <v>895</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="E134" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>128</v>
+        <v>511</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>583</v>
+        <v>895</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>799</v>
+        <v>895</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="E135" s="14">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>800</v>
+        <v>510</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>584</v>
+        <v>895</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>539</v>
       </c>
       <c r="E136" s="14">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
-        <v>584</v>
+        <v>895</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>539</v>
       </c>
       <c r="E137" s="14">
-        <v>2</v>
+        <v>888</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>510</v>
+        <v>794</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="E138" s="14">
-        <v>888</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="E139" s="14">
-        <v>888</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E140" s="14">
-        <v>1</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H140" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E141" s="14">
-        <v>2</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E142" s="14">
-        <v>3</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E143" s="14">
-        <v>4</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E144" s="14">
-        <v>1</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E145" s="14">
-        <v>1</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E146" s="14">
-        <v>2</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="14">
-        <v>1</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>158</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H59" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
+  <autoFilter ref="A1:H82" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16300,8 +16068,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16345,828 +16113,828 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>900</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>816</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D37" s="15" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="15" t="s">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D38" s="15" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D39" s="15" t="s">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C48" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="D48" s="15" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="C59" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>899</v>
       </c>
     </row>
   </sheetData>
